--- a/oblig1/runtime data.xlsx
+++ b/oblig1/runtime data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659695A-D604-41B1-95E7-3BE4B2059D70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C488B-4E4E-4EAA-B852-7F2A5B5F7693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
   <si>
     <t>Arrays.sort</t>
   </si>
@@ -50,15 +51,25 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>2Threads</t>
+  </si>
+  <si>
+    <t>8Threads</t>
+  </si>
+  <si>
+    <t>4Threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +80,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,12 +233,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,6 +247,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +266,2547 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K = 20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>368.79599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>663.94200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFD5-48D0-B960-BC373B141BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214.852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>443.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFD5-48D0-B960-BC373B141BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354.28300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFD5-48D0-B960-BC373B141BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>332.84399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFD5-48D0-B960-BC373B141BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="100"/>
+        <c:axId val="1947551840"/>
+        <c:axId val="1940484048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947551840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1940484048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1940484048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947551840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K=100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.533000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>692.06299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-432C-4A66-9373-9D49A1F933E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-432C-4A66-9373-9D49A1F933E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.511000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329.55700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-432C-4A66-9373-9D49A1F933E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.624000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.93299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-432C-4A66-9373-9D49A1F933E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="41306912"/>
+        <c:axId val="45507968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41306912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45507968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45507968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41306912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0382BDE5-96F3-463E-B9FB-E92A6EE86E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603629</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>186436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596424</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FB169A-3D98-4B30-A97D-52DDB955121D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,20 +5374,20 @@
       <c r="B65" s="2">
         <v>20</v>
       </c>
-      <c r="C65" s="16">
-        <v>56258.004999999997</v>
-      </c>
-      <c r="D65" s="16">
-        <v>384.53300000000002</v>
-      </c>
-      <c r="E65" s="16">
-        <v>321.64999999999998</v>
-      </c>
-      <c r="F65" s="16">
-        <v>226.351</v>
-      </c>
-      <c r="G65" s="16">
-        <v>138.25200000000001</v>
+      <c r="C65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="24">
+        <v>368.79599999999999</v>
+      </c>
+      <c r="E65" s="24">
+        <v>302.44</v>
+      </c>
+      <c r="F65" s="24">
+        <v>152.97300000000001</v>
+      </c>
+      <c r="G65" s="24">
+        <v>143.32900000000001</v>
       </c>
       <c r="J65" s="6">
         <v>500000000</v>
@@ -2833,8 +5395,8 @@
       <c r="K65" s="2">
         <v>100</v>
       </c>
-      <c r="L65" s="16">
-        <v>59358.904999999999</v>
+      <c r="L65" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="M65" s="16">
         <v>389.20400000000001</v>
@@ -2852,25 +5414,25 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="16">
-        <v>56651.870999999999</v>
-      </c>
-      <c r="D66" s="16">
-        <v>328.03199999999998</v>
-      </c>
-      <c r="E66" s="16">
-        <v>264.322</v>
-      </c>
-      <c r="F66" s="16">
-        <v>153.65700000000001</v>
-      </c>
-      <c r="G66" s="16">
-        <v>147.34899999999999</v>
+      <c r="C66" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="24">
+        <v>410.39699999999999</v>
+      </c>
+      <c r="E66" s="24">
+        <v>303.20100000000002</v>
+      </c>
+      <c r="F66" s="24">
+        <v>203.50299999999999</v>
+      </c>
+      <c r="G66" s="24">
+        <v>152.751</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="16">
-        <v>59677.26</v>
+      <c r="L66" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="M66" s="16">
         <v>485.50799999999998</v>
@@ -2888,25 +5450,25 @@
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="16">
-        <v>56475.125</v>
-      </c>
-      <c r="D67" s="16">
-        <v>392.25700000000001</v>
-      </c>
-      <c r="E67" s="16">
-        <v>335.36900000000003</v>
-      </c>
-      <c r="F67" s="16">
-        <v>209.41300000000001</v>
-      </c>
-      <c r="G67" s="16">
-        <v>183.25299999999999</v>
+      <c r="C67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="24">
+        <v>332.26</v>
+      </c>
+      <c r="E67" s="24">
+        <v>365.35500000000002</v>
+      </c>
+      <c r="F67" s="24">
+        <v>169.761</v>
+      </c>
+      <c r="G67" s="24">
+        <v>167.95400000000001</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="16">
-        <v>59559.050999999999</v>
+      <c r="L67" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="M67" s="16">
         <v>354.27600000000001</v>
@@ -2924,25 +5486,25 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="16">
-        <v>56577.834999999999</v>
-      </c>
-      <c r="D68" s="16">
-        <v>352.09800000000001</v>
-      </c>
-      <c r="E68" s="16">
-        <v>229.005</v>
-      </c>
-      <c r="F68" s="16">
-        <v>214.989</v>
-      </c>
-      <c r="G68" s="16">
-        <v>174.298</v>
+      <c r="C68" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="24">
+        <v>336.97300000000001</v>
+      </c>
+      <c r="E68" s="24">
+        <v>206.30600000000001</v>
+      </c>
+      <c r="F68" s="24">
+        <v>201.59800000000001</v>
+      </c>
+      <c r="G68" s="24">
+        <v>171.197</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="16">
-        <v>59550.756999999998</v>
+      <c r="L68" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="M68" s="16">
         <v>352.84899999999999</v>
@@ -2960,25 +5522,25 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="16">
-        <v>56706.784</v>
-      </c>
-      <c r="D69" s="16">
-        <v>332.33800000000002</v>
-      </c>
-      <c r="E69" s="16">
-        <v>242.63300000000001</v>
-      </c>
-      <c r="F69" s="16">
-        <v>201.626</v>
-      </c>
-      <c r="G69" s="16">
-        <v>146.10400000000001</v>
+      <c r="C69" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="24">
+        <v>322.08699999999999</v>
+      </c>
+      <c r="E69" s="24">
+        <v>214.852</v>
+      </c>
+      <c r="F69" s="24">
+        <v>157.643</v>
+      </c>
+      <c r="G69" s="24">
+        <v>181.215</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="16">
-        <v>59655.991999999998</v>
+      <c r="L69" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="M69" s="16">
         <v>333.39</v>
@@ -2996,25 +5558,28 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="16">
-        <v>56435.964999999997</v>
-      </c>
-      <c r="D70" s="16">
-        <v>328.91300000000001</v>
-      </c>
-      <c r="E70" s="16">
-        <v>252.733</v>
-      </c>
-      <c r="F70" s="16">
-        <v>197.42599999999999</v>
-      </c>
-      <c r="G70" s="16">
-        <v>136.02799999999999</v>
+      <c r="C70" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="24">
+        <v>422.452</v>
+      </c>
+      <c r="E70" s="24">
+        <v>211.13300000000001</v>
+      </c>
+      <c r="F70" s="24">
+        <v>146.71100000000001</v>
+      </c>
+      <c r="G70" s="24">
+        <v>193.274</v>
+      </c>
+      <c r="H70" s="24">
+        <v>1000</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="16">
-        <v>59518.464</v>
+      <c r="L70" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="M70" s="16">
         <v>327.82</v>
@@ -3029,28 +5594,28 @@
         <v>146.089</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="16">
-        <v>56514.794999999998</v>
-      </c>
-      <c r="D71" s="16">
-        <v>368.82900000000001</v>
-      </c>
-      <c r="E71" s="16">
-        <v>220.94300000000001</v>
-      </c>
-      <c r="F71" s="16">
-        <v>196.19200000000001</v>
-      </c>
-      <c r="G71" s="16">
-        <v>180.429</v>
+      <c r="C71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="24">
+        <v>373.52199999999999</v>
+      </c>
+      <c r="E71" s="24">
+        <v>195.363</v>
+      </c>
+      <c r="F71" s="24">
+        <v>167.3</v>
+      </c>
+      <c r="G71" s="24">
+        <v>176.51900000000001</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="16">
-        <v>59620.78</v>
+      <c r="L71" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="M71" s="16">
         <v>353.25099999999998</v>
@@ -3068,38 +5633,32 @@
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="13">
-        <f>MEDIAN(C65:C71)</f>
-        <v>56514.794999999998</v>
+      <c r="C72" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D72" s="13">
-        <f t="shared" ref="D72" si="47">MEDIAN(D65:D71)</f>
-        <v>352.09800000000001</v>
+        <v>368.79599999999999</v>
       </c>
       <c r="E72" s="13">
-        <f t="shared" ref="E72" si="48">MEDIAN(E65:E71)</f>
-        <v>252.733</v>
+        <v>214.852</v>
       </c>
       <c r="F72" s="13">
-        <f t="shared" ref="F72" si="49">MEDIAN(F65:F71)</f>
-        <v>201.626</v>
+        <v>167.3</v>
       </c>
       <c r="G72" s="13">
-        <f t="shared" ref="G72" si="50">MEDIAN(G65:G71)</f>
-        <v>147.34899999999999</v>
+        <v>171.197</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="20">
-        <f>MEDIAN(L65:L71)</f>
-        <v>59559.050999999999</v>
+      <c r="L72" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="M72" s="20">
-        <f t="shared" ref="M72" si="51">MEDIAN(M65:M71)</f>
+        <f t="shared" ref="M72" si="47">MEDIAN(M65:M71)</f>
         <v>353.25099999999998</v>
       </c>
       <c r="N72" s="20">
-        <f t="shared" ref="N72" si="52">MEDIAN(N65:N71)</f>
+        <f t="shared" ref="N72" si="48">MEDIAN(N65:N71)</f>
         <v>214.08099999999999</v>
       </c>
       <c r="O72" s="20">
@@ -3107,7 +5666,7 @@
         <v>167.69</v>
       </c>
       <c r="P72" s="21">
-        <f t="shared" ref="P72" si="53">MEDIAN(P65:P71)</f>
+        <f t="shared" ref="P72" si="49">MEDIAN(P65:P71)</f>
         <v>161.96</v>
       </c>
     </row>
@@ -3132,20 +5691,20 @@
       <c r="B74" s="2">
         <v>20</v>
       </c>
-      <c r="C74" s="16">
-        <v>9453.2810000000009</v>
-      </c>
-      <c r="D74" s="16">
-        <v>84.02</v>
-      </c>
-      <c r="E74" s="16">
-        <v>71.222999999999999</v>
-      </c>
-      <c r="F74" s="16">
-        <v>40.271000000000001</v>
-      </c>
-      <c r="G74" s="16">
-        <v>38.363</v>
+      <c r="C74" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="24">
+        <v>861.50400000000002</v>
+      </c>
+      <c r="E74" s="24">
+        <v>516.12900000000002</v>
+      </c>
+      <c r="F74" s="24">
+        <v>406.95600000000002</v>
+      </c>
+      <c r="G74" s="24">
+        <v>344.41399999999999</v>
       </c>
       <c r="J74" s="17">
         <v>1000000000</v>
@@ -3172,20 +5731,20 @@
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="16">
-        <v>9373.0280000000002</v>
-      </c>
-      <c r="D75" s="16">
-        <v>97.637</v>
-      </c>
-      <c r="E75" s="16">
-        <v>83.850999999999999</v>
-      </c>
-      <c r="F75" s="16">
-        <v>48.381</v>
-      </c>
-      <c r="G75" s="16">
-        <v>46.439</v>
+      <c r="C75" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="24">
+        <v>826.99300000000005</v>
+      </c>
+      <c r="E75" s="24">
+        <v>575.53800000000001</v>
+      </c>
+      <c r="F75" s="24">
+        <v>322.27300000000002</v>
+      </c>
+      <c r="G75" s="24">
+        <v>355.90100000000001</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3208,20 +5767,20 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="16">
-        <v>9442.8240000000005</v>
-      </c>
-      <c r="D76" s="16">
-        <v>66.751999999999995</v>
-      </c>
-      <c r="E76" s="16">
-        <v>51.889000000000003</v>
-      </c>
-      <c r="F76" s="16">
-        <v>40.152000000000001</v>
-      </c>
-      <c r="G76" s="16">
-        <v>36.518999999999998</v>
+      <c r="C76" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="24">
+        <v>663.94200000000001</v>
+      </c>
+      <c r="E76" s="24">
+        <v>443.29</v>
+      </c>
+      <c r="F76" s="24">
+        <v>299.01400000000001</v>
+      </c>
+      <c r="G76" s="24">
+        <v>335.50400000000002</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3244,20 +5803,20 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="16">
-        <v>9295.4830000000002</v>
-      </c>
-      <c r="D77" s="16">
-        <v>66.093999999999994</v>
-      </c>
-      <c r="E77" s="16">
-        <v>39.732999999999997</v>
-      </c>
-      <c r="F77" s="16">
-        <v>43.832999999999998</v>
-      </c>
-      <c r="G77" s="16">
-        <v>35.656999999999996</v>
+      <c r="C77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="24">
+        <v>695.18799999999999</v>
+      </c>
+      <c r="E77" s="24">
+        <v>424.048</v>
+      </c>
+      <c r="F77" s="24">
+        <v>391.81799999999998</v>
+      </c>
+      <c r="G77" s="24">
+        <v>329.65300000000002</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -3280,20 +5839,20 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="16">
-        <v>9258.2099999999991</v>
-      </c>
-      <c r="D78" s="16">
-        <v>74.884</v>
-      </c>
-      <c r="E78" s="16">
-        <v>38.552999999999997</v>
-      </c>
-      <c r="F78" s="16">
-        <v>45.658000000000001</v>
-      </c>
-      <c r="G78" s="16">
-        <v>38.689</v>
+      <c r="C78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="24">
+        <v>630.28499999999997</v>
+      </c>
+      <c r="E78" s="24">
+        <v>391.74799999999999</v>
+      </c>
+      <c r="F78" s="24">
+        <v>354.28300000000002</v>
+      </c>
+      <c r="G78" s="24">
+        <v>262.99200000000002</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -3316,20 +5875,20 @@
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="16">
-        <v>9281.2090000000007</v>
-      </c>
-      <c r="D79" s="16">
-        <v>73.018000000000001</v>
-      </c>
-      <c r="E79" s="16">
-        <v>55.228000000000002</v>
-      </c>
-      <c r="F79" s="16">
-        <v>47.128</v>
-      </c>
-      <c r="G79" s="16">
-        <v>38.049999999999997</v>
+      <c r="C79" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="24">
+        <v>654.10400000000004</v>
+      </c>
+      <c r="E79" s="24">
+        <v>468.84</v>
+      </c>
+      <c r="F79" s="24">
+        <v>312.13400000000001</v>
+      </c>
+      <c r="G79" s="24">
+        <v>332.84399999999999</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="1"/>
@@ -3352,20 +5911,20 @@
     <row r="80" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="16">
-        <v>9266.6280000000006</v>
-      </c>
-      <c r="D80" s="16">
-        <v>72.826999999999998</v>
-      </c>
-      <c r="E80" s="16">
-        <v>51.006</v>
-      </c>
-      <c r="F80" s="16">
-        <v>38.567999999999998</v>
-      </c>
-      <c r="G80" s="16">
-        <v>38.536000000000001</v>
+      <c r="C80" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="24">
+        <v>632.09299999999996</v>
+      </c>
+      <c r="E80" s="24">
+        <v>440.31900000000002</v>
+      </c>
+      <c r="F80" s="24">
+        <v>367.85700000000003</v>
+      </c>
+      <c r="G80" s="24">
+        <v>307.64</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3388,25 +5947,20 @@
     <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="13">
-        <f>MEDIAN(C74:C80)</f>
-        <v>9295.4830000000002</v>
+      <c r="C81" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" ref="D81" si="54">MEDIAN(D74:D80)</f>
-        <v>73.018000000000001</v>
+        <v>663.94200000000001</v>
       </c>
       <c r="E81" s="13">
-        <f t="shared" ref="E81" si="55">MEDIAN(E74:E80)</f>
-        <v>51.889000000000003</v>
+        <v>443.29</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" ref="F81" si="56">MEDIAN(F74:F80)</f>
-        <v>43.832999999999998</v>
+        <v>354.28300000000002</v>
       </c>
       <c r="G81" s="13">
-        <f t="shared" ref="G81" si="57">MEDIAN(G74:G80)</f>
-        <v>38.363</v>
+        <v>332.84399999999999</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -3418,15 +5972,15 @@
         <v>692.06299999999999</v>
       </c>
       <c r="N81" s="22">
-        <f t="shared" ref="N81:P81" si="58">MEDIAN(N74:N80)</f>
+        <f t="shared" ref="N81:P81" si="50">MEDIAN(N74:N80)</f>
         <v>472.27</v>
       </c>
       <c r="O81" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>329.55700000000002</v>
       </c>
       <c r="P81" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="50"/>
         <v>322.93299999999999</v>
       </c>
     </row>
@@ -5149,4 +7703,471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93D489-B014-4727-899A-E7C5A17ABF7E}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>100</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="I2" s="6">
+        <v>100</v>
+      </c>
+      <c r="J2" s="27">
+        <v>100</v>
+      </c>
+      <c r="K2" s="26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L2" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M2" s="26">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N2" s="26">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="O2" s="26">
+        <v>1.9379999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1.464</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="27">
+        <v>100</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1.103</v>
+      </c>
+      <c r="N3" s="26">
+        <v>1.361</v>
+      </c>
+      <c r="O3" s="26">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.221</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1.506</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="27">
+        <v>100</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.438</v>
+      </c>
+      <c r="M4" s="26">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="N4" s="26">
+        <v>2.169</v>
+      </c>
+      <c r="O4" s="26">
+        <v>2.3980000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1.06</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1.145</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1.732</v>
+      </c>
+      <c r="I5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="27">
+        <v>100</v>
+      </c>
+      <c r="K5" s="26">
+        <v>9.1649999999999991</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M5" s="26">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="N5" s="26">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1.585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="25">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.309</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3.01</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1.226</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="27">
+        <v>100</v>
+      </c>
+      <c r="K6" s="26">
+        <v>67.536000000000001</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="M6" s="26">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1.282</v>
+      </c>
+      <c r="O6" s="26">
+        <v>1.921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="C7" s="25">
+        <v>68.578000000000003</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1.31</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1.534</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="J7" s="27">
+        <v>100</v>
+      </c>
+      <c r="K7" s="26">
+        <v>842.91200000000003</v>
+      </c>
+      <c r="L7" s="26">
+        <v>8.048</v>
+      </c>
+      <c r="M7" s="26">
+        <v>8.7889999999999997</v>
+      </c>
+      <c r="N7" s="26">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="O7" s="26">
+        <v>3.9380000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="C8" s="25">
+        <v>810.798</v>
+      </c>
+      <c r="D8" s="25">
+        <v>7.06</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="F8" s="25">
+        <v>4.1829999999999998</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3.7330000000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="J8" s="27">
+        <v>100</v>
+      </c>
+      <c r="K8" s="26">
+        <v>9745.3089999999993</v>
+      </c>
+      <c r="L8" s="26">
+        <v>73.533000000000001</v>
+      </c>
+      <c r="M8" s="26">
+        <v>56.552</v>
+      </c>
+      <c r="N8" s="26">
+        <v>40.511000000000003</v>
+      </c>
+      <c r="O8" s="26">
+        <v>38.624000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25">
+        <v>368.79599999999999</v>
+      </c>
+      <c r="E9" s="25">
+        <v>214.852</v>
+      </c>
+      <c r="F9" s="25">
+        <v>167.3</v>
+      </c>
+      <c r="G9" s="25">
+        <v>171.197</v>
+      </c>
+      <c r="I9" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="J9" s="27">
+        <v>100</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="26">
+        <v>353.25099999999998</v>
+      </c>
+      <c r="M9" s="26">
+        <v>214.08099999999999</v>
+      </c>
+      <c r="N9" s="26">
+        <v>167.69</v>
+      </c>
+      <c r="O9" s="26">
+        <v>161.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>663.94200000000001</v>
+      </c>
+      <c r="E10" s="25">
+        <v>443.29</v>
+      </c>
+      <c r="F10" s="25">
+        <v>354.28300000000002</v>
+      </c>
+      <c r="G10" s="25">
+        <v>332.84399999999999</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="J10" s="27">
+        <v>100</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="26">
+        <v>692.06299999999999</v>
+      </c>
+      <c r="M10" s="26">
+        <v>472.27</v>
+      </c>
+      <c r="N10" s="26">
+        <v>329.55700000000002</v>
+      </c>
+      <c r="O10" s="26">
+        <v>322.93299999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>